--- a/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B_R-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>99269</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83325</v>
+        <v>83110</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117628</v>
+        <v>117671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1461497801152615</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1226752664607285</v>
+        <v>0.122359654178792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1731776259446856</v>
+        <v>0.1732422172069927</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -762,19 +762,19 @@
         <v>127298</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113012</v>
+        <v>112788</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141336</v>
+        <v>142906</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1783343223399488</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1583211158119786</v>
+        <v>0.1580072990763593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1980005999777315</v>
+        <v>0.200198922864797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>400</v>
@@ -783,19 +783,19 @@
         <v>226568</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204901</v>
+        <v>203852</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250444</v>
+        <v>251712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1626415970660262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1470882491804813</v>
+        <v>0.1463347817086204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1797812197102954</v>
+        <v>0.180691597504705</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>579962</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561603</v>
+        <v>561560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>595906</v>
+        <v>596121</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8538502198847384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8268223740553144</v>
+        <v>0.8267577827930068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8773247335392717</v>
+        <v>0.877640345821208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>935</v>
@@ -833,19 +833,19 @@
         <v>586520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>572482</v>
+        <v>570912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>600806</v>
+        <v>601030</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8216656776600513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8019994000222684</v>
+        <v>0.799801077135203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8416788841880214</v>
+        <v>0.841992700923641</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1518</v>
@@ -854,19 +854,19 @@
         <v>1166481</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1142605</v>
+        <v>1141337</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1188148</v>
+        <v>1189197</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8373584029339739</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8202187802897044</v>
+        <v>0.819308402495295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8529117508195189</v>
+        <v>0.8536652182913798</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>102423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83240</v>
+        <v>83247</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122528</v>
+        <v>123151</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.09838251158519871</v>
+        <v>0.09838251158519873</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07995584824521219</v>
+        <v>0.07996291227290027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.117693991238111</v>
+        <v>0.1182923528758864</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>283</v>
@@ -979,19 +979,19 @@
         <v>169593</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>150612</v>
+        <v>151325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>191053</v>
+        <v>190531</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1610013763508101</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1429820722403335</v>
+        <v>0.1436586302997831</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.181374750974348</v>
+        <v>0.1808787864909514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>404</v>
@@ -1000,19 +1000,19 @@
         <v>272016</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>244955</v>
+        <v>247523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>301510</v>
+        <v>302453</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1298757127996482</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1169554038467803</v>
+        <v>0.1181816544814534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.14395810100763</v>
+        <v>0.1444080727987069</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>938646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>918541</v>
+        <v>917918</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>957829</v>
+        <v>957822</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9016174884148014</v>
+        <v>0.9016174884148013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.882306008761889</v>
+        <v>0.8817076471241135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9200441517547876</v>
+        <v>0.9200370877270998</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1205</v>
@@ -1050,19 +1050,19 @@
         <v>883769</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>862309</v>
+        <v>862831</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>902750</v>
+        <v>902037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8389986236491898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8186252490256519</v>
+        <v>0.8191212135090487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8570179277596665</v>
+        <v>0.8563413697002173</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2041</v>
@@ -1071,19 +1071,19 @@
         <v>1822415</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1792921</v>
+        <v>1791978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1849476</v>
+        <v>1846908</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8701242872003517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.85604189899237</v>
+        <v>0.8555919272012928</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.88304459615322</v>
+        <v>0.8818183455185467</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>44186</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32634</v>
+        <v>32197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58911</v>
+        <v>60418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05626527960073503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04155516303845389</v>
+        <v>0.04099946989667187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07501671695013995</v>
+        <v>0.07693575475475029</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -1196,19 +1196,19 @@
         <v>69090</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55524</v>
+        <v>56094</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83755</v>
+        <v>85336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08621608932433407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06928740264942895</v>
+        <v>0.06999831745066912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1045167899812625</v>
+        <v>0.1064891960403902</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1217,19 +1217,19 @@
         <v>113276</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94882</v>
+        <v>94555</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136266</v>
+        <v>134704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07139218167377097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05979938736541443</v>
+        <v>0.059593537630868</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08588219028454042</v>
+        <v>0.08489782695308669</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>741121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>726396</v>
+        <v>724889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752673</v>
+        <v>753110</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9437347203992649</v>
+        <v>0.943734720399265</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9249832830498607</v>
+        <v>0.9230642452452497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9584448369615464</v>
+        <v>0.9590005301033282</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>939</v>
@@ -1267,19 +1267,19 @@
         <v>732269</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>717604</v>
+        <v>716023</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>745835</v>
+        <v>745265</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9137839106756659</v>
+        <v>0.913783910675666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8954832100187374</v>
+        <v>0.89351080395961</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.930712597350571</v>
+        <v>0.930001682549331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1561</v>
@@ -1288,19 +1288,19 @@
         <v>1473390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1450400</v>
+        <v>1451962</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1491784</v>
+        <v>1492111</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9286078183262292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9141178097154595</v>
+        <v>0.9151021730469135</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9402006126345855</v>
+        <v>0.9404064623691319</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>110033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92187</v>
+        <v>91622</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130945</v>
+        <v>130884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1125209226084298</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09427149684611602</v>
+        <v>0.09369369829339616</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1339047636107971</v>
+        <v>0.1338429057853291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>268</v>
@@ -1413,19 +1413,19 @@
         <v>175551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156357</v>
+        <v>154836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>196372</v>
+        <v>197208</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1592896923825955</v>
+        <v>0.1592896923825956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1418737962643766</v>
+        <v>0.1404940474547476</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1781819951626454</v>
+        <v>0.1789410142169206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>395</v>
@@ -1434,19 +1434,19 @@
         <v>285584</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>258738</v>
+        <v>257676</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315048</v>
+        <v>316750</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1373015406654255</v>
+        <v>0.1373015406654254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1243948128086827</v>
+        <v>0.1238838334298228</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1514671154577289</v>
+        <v>0.1522850495624169</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>867860</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>846948</v>
+        <v>847009</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>885706</v>
+        <v>886271</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8874790773915702</v>
+        <v>0.8874790773915701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8660952363892027</v>
+        <v>0.8661570942146709</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.905728503153884</v>
+        <v>0.906306301706604</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1271</v>
@@ -1484,19 +1484,19 @@
         <v>926533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>905712</v>
+        <v>904876</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>945727</v>
+        <v>947248</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8407103076174044</v>
+        <v>0.8407103076174045</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8218180048373545</v>
+        <v>0.8210589857830793</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8581262037356235</v>
+        <v>0.8595059525452523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2136</v>
@@ -1505,19 +1505,19 @@
         <v>1794394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1764930</v>
+        <v>1763228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1821240</v>
+        <v>1822302</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8626984593345746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.848532884542271</v>
+        <v>0.8477149504375832</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8756051871913173</v>
+        <v>0.8761161665701772</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>355911</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>320293</v>
+        <v>324872</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>395844</v>
+        <v>394270</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1021706220805332</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09194559555463047</v>
+        <v>0.09326011257788132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1136340313038072</v>
+        <v>0.1131820528511616</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>909</v>
@@ -1630,19 +1630,19 @@
         <v>541532</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>506324</v>
+        <v>505775</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>577699</v>
+        <v>582120</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1475312675094848</v>
+        <v>0.1475312675094847</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1379396183898319</v>
+        <v>0.1377898445649172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1573843814129733</v>
+        <v>0.158588840036393</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1334</v>
@@ -1651,19 +1651,19 @@
         <v>897443</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>850876</v>
+        <v>852549</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>945081</v>
+        <v>951765</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1254441700403704</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1189350111770999</v>
+        <v>0.1191688562675132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1321030025201212</v>
+        <v>0.133037194885832</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3127590</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3087657</v>
+        <v>3089231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3163208</v>
+        <v>3158629</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8978293779194668</v>
+        <v>0.8978293779194669</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8863659686961921</v>
+        <v>0.8868179471488384</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9080544044453694</v>
+        <v>0.9067398874221186</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4350</v>
@@ -1701,19 +1701,19 @@
         <v>3129091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3092924</v>
+        <v>3088503</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3164299</v>
+        <v>3164848</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8524687324905154</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8426156185870264</v>
+        <v>0.8414111599636072</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8620603816101681</v>
+        <v>0.8622101554350825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7256</v>
@@ -1722,19 +1722,19 @@
         <v>6256681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6209043</v>
+        <v>6202359</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6303248</v>
+        <v>6301575</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8745558299596297</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8678969974798788</v>
+        <v>0.866962805114168</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8810649888229002</v>
+        <v>0.8808311437324868</v>
       </c>
     </row>
     <row r="18">
